--- a/charts/base.xlsx
+++ b/charts/base.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E261"/>
+  <dimension ref="A1:E361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>inst800.txt</t>
+          <t>inst5000.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -471,7 +471,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -484,7 +484,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>inst800.txt</t>
+          <t>inst5000.txt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -494,7 +494,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -507,7 +507,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>inst800.txt</t>
+          <t>inst5000.txt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -517,7 +517,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -530,7 +530,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>inst800.txt</t>
+          <t>inst5000.txt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -540,7 +540,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -553,7 +553,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>inst800.txt</t>
+          <t>inst5000.txt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -576,7 +576,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>inst800.txt</t>
+          <t>inst5000.txt</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -599,7 +599,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>inst800.txt</t>
+          <t>inst5000.txt</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -622,7 +622,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>inst800.txt</t>
+          <t>inst5000.txt</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -645,7 +645,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>inst800.txt</t>
+          <t>inst5000.txt</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -668,7 +668,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>inst800.txt</t>
+          <t>inst5000.txt</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -691,7 +691,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>inst3200.txt</t>
+          <t>inst800.txt</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>800</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -714,7 +714,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>inst3200.txt</t>
+          <t>inst800.txt</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>800</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -737,7 +737,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>inst3200.txt</t>
+          <t>inst800.txt</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>800</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -760,7 +760,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>inst3200.txt</t>
+          <t>inst800.txt</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -770,7 +770,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>800</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -783,7 +783,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>inst3200.txt</t>
+          <t>inst800.txt</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>800</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -806,7 +806,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>inst3200.txt</t>
+          <t>inst800.txt</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>800</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -829,7 +829,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>inst3200.txt</t>
+          <t>inst800.txt</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>800</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -852,7 +852,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>inst3200.txt</t>
+          <t>inst800.txt</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>800</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -875,7 +875,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>inst3200.txt</t>
+          <t>inst800.txt</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -885,7 +885,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>800</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -898,7 +898,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>inst3200.txt</t>
+          <t>inst800.txt</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>800</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -921,7 +921,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>inst200.txt</t>
+          <t>inst3200.txt</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -944,7 +944,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>inst200.txt</t>
+          <t>inst3200.txt</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -954,7 +954,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -967,7 +967,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>inst200.txt</t>
+          <t>inst3200.txt</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -990,7 +990,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>inst200.txt</t>
+          <t>inst3200.txt</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>inst200.txt</t>
+          <t>inst3200.txt</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>inst200.txt</t>
+          <t>inst3200.txt</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>inst200.txt</t>
+          <t>inst3200.txt</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>inst200.txt</t>
+          <t>inst3200.txt</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>inst200.txt</t>
+          <t>inst3200.txt</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>inst200.txt</t>
+          <t>inst3200.txt</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>inst2400.txt</t>
+          <t>inst200.txt</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>200</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>inst2400.txt</t>
+          <t>inst200.txt</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>200</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>inst2400.txt</t>
+          <t>inst200.txt</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>200</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>inst2400.txt</t>
+          <t>inst200.txt</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>200</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>inst2400.txt</t>
+          <t>inst200.txt</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>200</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>inst2400.txt</t>
+          <t>inst200.txt</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>200</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>inst2400.txt</t>
+          <t>inst200.txt</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>200</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>inst2400.txt</t>
+          <t>inst200.txt</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>200</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>inst2400.txt</t>
+          <t>inst200.txt</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>200</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>inst2400.txt</t>
+          <t>inst200.txt</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>200</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>inst1600.txt</t>
+          <t>inst5800.txt</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1600</t>
+          <t>5800</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>inst1600.txt</t>
+          <t>inst5800.txt</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1600</t>
+          <t>5800</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>inst1600.txt</t>
+          <t>inst5800.txt</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1600</t>
+          <t>5800</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>inst1600.txt</t>
+          <t>inst5800.txt</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1600</t>
+          <t>5800</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>inst1600.txt</t>
+          <t>inst5800.txt</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1600</t>
+          <t>5800</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>inst1600.txt</t>
+          <t>inst5800.txt</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1600</t>
+          <t>5800</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>inst1600.txt</t>
+          <t>inst5800.txt</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1600</t>
+          <t>5800</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>inst1600.txt</t>
+          <t>inst5800.txt</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1600</t>
+          <t>5800</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>inst1600.txt</t>
+          <t>inst5800.txt</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1600</t>
+          <t>5800</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>inst1600.txt</t>
+          <t>inst5800.txt</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1600</t>
+          <t>5800</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>inst600.txt</t>
+          <t>inst4800.txt</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>4800</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>inst600.txt</t>
+          <t>inst4800.txt</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>4800</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>inst600.txt</t>
+          <t>inst4800.txt</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>4800</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>inst600.txt</t>
+          <t>inst4800.txt</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>4800</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>inst600.txt</t>
+          <t>inst4800.txt</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>4800</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>inst600.txt</t>
+          <t>inst4800.txt</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>4800</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>inst600.txt</t>
+          <t>inst4800.txt</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>4800</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -1772,7 +1772,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>inst600.txt</t>
+          <t>inst4800.txt</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1782,7 +1782,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>4800</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>inst600.txt</t>
+          <t>inst4800.txt</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>4800</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>inst600.txt</t>
+          <t>inst4800.txt</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>4800</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>inst2800.txt</t>
+          <t>inst2400.txt</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1851,7 +1851,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>2400</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>inst2800.txt</t>
+          <t>inst2400.txt</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>2400</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>inst2800.txt</t>
+          <t>inst2400.txt</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>2400</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -1910,7 +1910,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>inst2800.txt</t>
+          <t>inst2400.txt</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>2400</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>inst2800.txt</t>
+          <t>inst2400.txt</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>2400</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>inst2800.txt</t>
+          <t>inst2400.txt</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>2400</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>inst2800.txt</t>
+          <t>inst2400.txt</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>2400</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>inst2800.txt</t>
+          <t>inst2400.txt</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>2400</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -2025,7 +2025,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>inst2800.txt</t>
+          <t>inst2400.txt</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>2400</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>inst2800.txt</t>
+          <t>inst2400.txt</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>2400</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>inst1000.txt</t>
+          <t>inst1600.txt</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2081,7 +2081,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>inst1000.txt</t>
+          <t>inst1600.txt</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>inst1000.txt</t>
+          <t>inst1600.txt</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>inst1000.txt</t>
+          <t>inst1600.txt</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>inst1000.txt</t>
+          <t>inst1600.txt</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2173,7 +2173,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -2186,7 +2186,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>inst1000.txt</t>
+          <t>inst1600.txt</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>inst1000.txt</t>
+          <t>inst1600.txt</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2219,7 +2219,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>inst1000.txt</t>
+          <t>inst1600.txt</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2242,7 +2242,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -2255,7 +2255,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>inst1000.txt</t>
+          <t>inst1600.txt</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>inst1000.txt</t>
+          <t>inst1600.txt</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2288,7 +2288,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>inst2000.txt</t>
+          <t>inst5600.txt</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>5600</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>inst2000.txt</t>
+          <t>inst5600.txt</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2334,7 +2334,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>5600</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>inst2000.txt</t>
+          <t>inst5600.txt</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2357,7 +2357,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>5600</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>inst2000.txt</t>
+          <t>inst5600.txt</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>5600</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>inst2000.txt</t>
+          <t>inst5600.txt</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>5600</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -2416,7 +2416,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>inst2000.txt</t>
+          <t>inst5600.txt</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>5600</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>inst2000.txt</t>
+          <t>inst5600.txt</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>5600</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -2462,7 +2462,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>inst2000.txt</t>
+          <t>inst5600.txt</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>5600</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -2485,7 +2485,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>inst2000.txt</t>
+          <t>inst5600.txt</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>5600</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -2508,7 +2508,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>inst2000.txt</t>
+          <t>inst5600.txt</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>5600</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -2531,7 +2531,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>inst2600.txt</t>
+          <t>inst600.txt</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2600</t>
+          <t>600</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>inst2600.txt</t>
+          <t>inst600.txt</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2564,7 +2564,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2600</t>
+          <t>600</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>inst2600.txt</t>
+          <t>inst600.txt</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2587,7 +2587,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2600</t>
+          <t>600</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>inst2600.txt</t>
+          <t>inst600.txt</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2600</t>
+          <t>600</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -2623,7 +2623,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>inst2600.txt</t>
+          <t>inst600.txt</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2600</t>
+          <t>600</t>
         </is>
       </c>
       <c r="E96" t="n">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>inst2600.txt</t>
+          <t>inst600.txt</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2600</t>
+          <t>600</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>inst2600.txt</t>
+          <t>inst600.txt</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2679,7 +2679,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2600</t>
+          <t>600</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>inst2600.txt</t>
+          <t>inst600.txt</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2600</t>
+          <t>600</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>inst2600.txt</t>
+          <t>inst600.txt</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2725,7 +2725,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2600</t>
+          <t>600</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -2738,7 +2738,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>inst2600.txt</t>
+          <t>inst600.txt</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2748,7 +2748,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2600</t>
+          <t>600</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>inst3600.txt</t>
+          <t>inst4600.txt</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>3600</t>
+          <t>4600</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>inst3600.txt</t>
+          <t>inst4600.txt</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>3600</t>
+          <t>4600</t>
         </is>
       </c>
       <c r="E103" t="n">
@@ -2807,7 +2807,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>inst3600.txt</t>
+          <t>inst4600.txt</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>3600</t>
+          <t>4600</t>
         </is>
       </c>
       <c r="E104" t="n">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>inst3600.txt</t>
+          <t>inst4600.txt</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>3600</t>
+          <t>4600</t>
         </is>
       </c>
       <c r="E105" t="n">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>inst3600.txt</t>
+          <t>inst4600.txt</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2863,7 +2863,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>3600</t>
+          <t>4600</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>inst3600.txt</t>
+          <t>inst4600.txt</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2886,7 +2886,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>3600</t>
+          <t>4600</t>
         </is>
       </c>
       <c r="E107" t="n">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>inst3600.txt</t>
+          <t>inst4600.txt</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>3600</t>
+          <t>4600</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -2922,7 +2922,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>inst3600.txt</t>
+          <t>inst4600.txt</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>3600</t>
+          <t>4600</t>
         </is>
       </c>
       <c r="E109" t="n">
@@ -2945,7 +2945,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>inst3600.txt</t>
+          <t>inst4600.txt</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>3600</t>
+          <t>4600</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>inst3600.txt</t>
+          <t>inst4600.txt</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>3600</t>
+          <t>4600</t>
         </is>
       </c>
       <c r="E111" t="n">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>inst3800.txt</t>
+          <t>inst2800.txt</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>3800</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="E112" t="n">
@@ -3014,7 +3014,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>inst3800.txt</t>
+          <t>inst2800.txt</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3024,7 +3024,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>3800</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="E113" t="n">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>inst3800.txt</t>
+          <t>inst2800.txt</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3047,7 +3047,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>3800</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="E114" t="n">
@@ -3060,7 +3060,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>inst3800.txt</t>
+          <t>inst2800.txt</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3070,7 +3070,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>3800</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="E115" t="n">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>inst3800.txt</t>
+          <t>inst2800.txt</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3093,7 +3093,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>3800</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -3106,7 +3106,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>inst3800.txt</t>
+          <t>inst2800.txt</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3116,7 +3116,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>3800</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="E117" t="n">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>inst3800.txt</t>
+          <t>inst2800.txt</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>3800</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="E118" t="n">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>inst3800.txt</t>
+          <t>inst2800.txt</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>3800</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="E119" t="n">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>inst3800.txt</t>
+          <t>inst2800.txt</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3185,7 +3185,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>3800</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="E120" t="n">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>inst3800.txt</t>
+          <t>inst2800.txt</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>3800</t>
+          <t>2800</t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>inst1400.txt</t>
+          <t>inst5400.txt</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3231,7 +3231,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>5400</t>
         </is>
       </c>
       <c r="E122" t="n">
@@ -3244,7 +3244,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>inst1400.txt</t>
+          <t>inst5400.txt</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3254,7 +3254,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>5400</t>
         </is>
       </c>
       <c r="E123" t="n">
@@ -3267,7 +3267,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>inst1400.txt</t>
+          <t>inst5400.txt</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3277,7 +3277,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>5400</t>
         </is>
       </c>
       <c r="E124" t="n">
@@ -3290,7 +3290,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>inst1400.txt</t>
+          <t>inst5400.txt</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>5400</t>
         </is>
       </c>
       <c r="E125" t="n">
@@ -3313,7 +3313,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>inst1400.txt</t>
+          <t>inst5400.txt</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3323,7 +3323,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>5400</t>
         </is>
       </c>
       <c r="E126" t="n">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>inst1400.txt</t>
+          <t>inst5400.txt</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3346,7 +3346,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>5400</t>
         </is>
       </c>
       <c r="E127" t="n">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>inst1400.txt</t>
+          <t>inst5400.txt</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>5400</t>
         </is>
       </c>
       <c r="E128" t="n">
@@ -3382,7 +3382,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>inst1400.txt</t>
+          <t>inst5400.txt</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>5400</t>
         </is>
       </c>
       <c r="E129" t="n">
@@ -3405,7 +3405,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>inst1400.txt</t>
+          <t>inst5400.txt</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3415,7 +3415,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>5400</t>
         </is>
       </c>
       <c r="E130" t="n">
@@ -3428,7 +3428,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>inst1400.txt</t>
+          <t>inst5400.txt</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3438,7 +3438,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>5400</t>
         </is>
       </c>
       <c r="E131" t="n">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>inst1200.txt</t>
+          <t>inst1000.txt</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="E132" t="n">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>inst1200.txt</t>
+          <t>inst1000.txt</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="E133" t="n">
@@ -3497,7 +3497,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>inst1200.txt</t>
+          <t>inst1000.txt</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3507,7 +3507,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="E134" t="n">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>inst1200.txt</t>
+          <t>inst1000.txt</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="E135" t="n">
@@ -3543,7 +3543,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>inst1200.txt</t>
+          <t>inst1000.txt</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3553,7 +3553,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="E136" t="n">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>inst1200.txt</t>
+          <t>inst1000.txt</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="E137" t="n">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>inst1200.txt</t>
+          <t>inst1000.txt</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -3599,7 +3599,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="E138" t="n">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>inst1200.txt</t>
+          <t>inst1000.txt</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -3622,7 +3622,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="E139" t="n">
@@ -3635,7 +3635,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>inst1200.txt</t>
+          <t>inst1000.txt</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -3645,7 +3645,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="E140" t="n">
@@ -3658,7 +3658,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>inst1200.txt</t>
+          <t>inst1000.txt</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3668,7 +3668,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="E141" t="n">
@@ -3681,7 +3681,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>inst4000.txt</t>
+          <t>inst2000.txt</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -3691,7 +3691,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="E142" t="n">
@@ -3704,7 +3704,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>inst4000.txt</t>
+          <t>inst2000.txt</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="E143" t="n">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>inst4000.txt</t>
+          <t>inst2000.txt</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -3737,7 +3737,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="E144" t="n">
@@ -3750,7 +3750,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>inst4000.txt</t>
+          <t>inst2000.txt</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -3760,7 +3760,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="E145" t="n">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>inst4000.txt</t>
+          <t>inst2000.txt</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="E146" t="n">
@@ -3796,7 +3796,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>inst4000.txt</t>
+          <t>inst2000.txt</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -3806,7 +3806,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>inst4000.txt</t>
+          <t>inst2000.txt</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -3829,7 +3829,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="E148" t="n">
@@ -3842,7 +3842,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>inst4000.txt</t>
+          <t>inst2000.txt</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="E149" t="n">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>inst4000.txt</t>
+          <t>inst2000.txt</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -3875,7 +3875,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="E150" t="n">
@@ -3888,7 +3888,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>inst4000.txt</t>
+          <t>inst2000.txt</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3898,7 +3898,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="E151" t="n">
@@ -3911,7 +3911,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>inst3400.txt</t>
+          <t>inst2600.txt</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>3400</t>
+          <t>2600</t>
         </is>
       </c>
       <c r="E152" t="n">
@@ -3934,7 +3934,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>inst3400.txt</t>
+          <t>inst2600.txt</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>3400</t>
+          <t>2600</t>
         </is>
       </c>
       <c r="E153" t="n">
@@ -3957,7 +3957,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>inst3400.txt</t>
+          <t>inst2600.txt</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>3400</t>
+          <t>2600</t>
         </is>
       </c>
       <c r="E154" t="n">
@@ -3980,7 +3980,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>inst3400.txt</t>
+          <t>inst2600.txt</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3990,7 +3990,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>3400</t>
+          <t>2600</t>
         </is>
       </c>
       <c r="E155" t="n">
@@ -4003,7 +4003,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>inst3400.txt</t>
+          <t>inst2600.txt</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -4013,7 +4013,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>3400</t>
+          <t>2600</t>
         </is>
       </c>
       <c r="E156" t="n">
@@ -4026,7 +4026,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>inst3400.txt</t>
+          <t>inst2600.txt</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -4036,7 +4036,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>3400</t>
+          <t>2600</t>
         </is>
       </c>
       <c r="E157" t="n">
@@ -4049,7 +4049,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>inst3400.txt</t>
+          <t>inst2600.txt</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>3400</t>
+          <t>2600</t>
         </is>
       </c>
       <c r="E158" t="n">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>inst3400.txt</t>
+          <t>inst2600.txt</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -4082,7 +4082,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>3400</t>
+          <t>2600</t>
         </is>
       </c>
       <c r="E159" t="n">
@@ -4095,7 +4095,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>inst3400.txt</t>
+          <t>inst2600.txt</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>3400</t>
+          <t>2600</t>
         </is>
       </c>
       <c r="E160" t="n">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>inst3400.txt</t>
+          <t>inst2600.txt</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -4128,7 +4128,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>3400</t>
+          <t>2600</t>
         </is>
       </c>
       <c r="E161" t="n">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>inst3000.txt</t>
+          <t>inst3600.txt</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -4151,7 +4151,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>3600</t>
         </is>
       </c>
       <c r="E162" t="n">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>inst3000.txt</t>
+          <t>inst3600.txt</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -4174,7 +4174,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>3600</t>
         </is>
       </c>
       <c r="E163" t="n">
@@ -4187,7 +4187,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>inst3000.txt</t>
+          <t>inst3600.txt</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -4197,7 +4197,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>3600</t>
         </is>
       </c>
       <c r="E164" t="n">
@@ -4210,7 +4210,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>inst3000.txt</t>
+          <t>inst3600.txt</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -4220,7 +4220,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>3600</t>
         </is>
       </c>
       <c r="E165" t="n">
@@ -4233,7 +4233,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>inst3000.txt</t>
+          <t>inst3600.txt</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -4243,7 +4243,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>3600</t>
         </is>
       </c>
       <c r="E166" t="n">
@@ -4256,7 +4256,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>inst3000.txt</t>
+          <t>inst3600.txt</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4266,7 +4266,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>3600</t>
         </is>
       </c>
       <c r="E167" t="n">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>inst3000.txt</t>
+          <t>inst3600.txt</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -4289,7 +4289,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>3600</t>
         </is>
       </c>
       <c r="E168" t="n">
@@ -4302,7 +4302,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>inst3000.txt</t>
+          <t>inst3600.txt</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>3600</t>
         </is>
       </c>
       <c r="E169" t="n">
@@ -4325,7 +4325,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>inst3000.txt</t>
+          <t>inst3600.txt</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>3600</t>
         </is>
       </c>
       <c r="E170" t="n">
@@ -4348,7 +4348,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>inst3000.txt</t>
+          <t>inst3600.txt</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>3600</t>
         </is>
       </c>
       <c r="E171" t="n">
@@ -4371,7 +4371,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>inst400.txt</t>
+          <t>inst5200.txt</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -4381,7 +4381,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>5200</t>
         </is>
       </c>
       <c r="E172" t="n">
@@ -4394,7 +4394,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>inst400.txt</t>
+          <t>inst5200.txt</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -4404,7 +4404,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>5200</t>
         </is>
       </c>
       <c r="E173" t="n">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>inst400.txt</t>
+          <t>inst5200.txt</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -4427,7 +4427,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>5200</t>
         </is>
       </c>
       <c r="E174" t="n">
@@ -4440,7 +4440,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>inst400.txt</t>
+          <t>inst5200.txt</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -4450,7 +4450,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>5200</t>
         </is>
       </c>
       <c r="E175" t="n">
@@ -4463,7 +4463,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>inst400.txt</t>
+          <t>inst5200.txt</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -4473,7 +4473,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>5200</t>
         </is>
       </c>
       <c r="E176" t="n">
@@ -4486,7 +4486,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>inst400.txt</t>
+          <t>inst5200.txt</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>5200</t>
         </is>
       </c>
       <c r="E177" t="n">
@@ -4509,7 +4509,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>inst400.txt</t>
+          <t>inst5200.txt</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -4519,7 +4519,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>5200</t>
         </is>
       </c>
       <c r="E178" t="n">
@@ -4532,7 +4532,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>inst400.txt</t>
+          <t>inst5200.txt</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -4542,7 +4542,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>5200</t>
         </is>
       </c>
       <c r="E179" t="n">
@@ -4555,7 +4555,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>inst400.txt</t>
+          <t>inst5200.txt</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -4565,7 +4565,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>5200</t>
         </is>
       </c>
       <c r="E180" t="n">
@@ -4578,7 +4578,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>inst400.txt</t>
+          <t>inst5200.txt</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -4588,7 +4588,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>5200</t>
         </is>
       </c>
       <c r="E181" t="n">
@@ -4601,7 +4601,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>inst2200.txt</t>
+          <t>inst3800.txt</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>3800</t>
         </is>
       </c>
       <c r="E182" t="n">
@@ -4624,7 +4624,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>inst2200.txt</t>
+          <t>inst3800.txt</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -4634,7 +4634,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>3800</t>
         </is>
       </c>
       <c r="E183" t="n">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>inst2200.txt</t>
+          <t>inst3800.txt</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>3800</t>
         </is>
       </c>
       <c r="E184" t="n">
@@ -4670,7 +4670,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>inst2200.txt</t>
+          <t>inst3800.txt</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -4680,7 +4680,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>3800</t>
         </is>
       </c>
       <c r="E185" t="n">
@@ -4693,7 +4693,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>inst2200.txt</t>
+          <t>inst3800.txt</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -4703,7 +4703,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>3800</t>
         </is>
       </c>
       <c r="E186" t="n">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>inst2200.txt</t>
+          <t>inst3800.txt</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -4726,7 +4726,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>3800</t>
         </is>
       </c>
       <c r="E187" t="n">
@@ -4739,7 +4739,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>inst2200.txt</t>
+          <t>inst3800.txt</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -4749,7 +4749,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>3800</t>
         </is>
       </c>
       <c r="E188" t="n">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>inst2200.txt</t>
+          <t>inst3800.txt</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -4772,7 +4772,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>3800</t>
         </is>
       </c>
       <c r="E189" t="n">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>inst2200.txt</t>
+          <t>inst3800.txt</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -4795,7 +4795,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>3800</t>
         </is>
       </c>
       <c r="E190" t="n">
@@ -4808,7 +4808,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>inst2200.txt</t>
+          <t>inst3800.txt</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -4818,7 +4818,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>3800</t>
         </is>
       </c>
       <c r="E191" t="n">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>inst1800.txt</t>
+          <t>inst1400.txt</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -4841,7 +4841,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>1800</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="E192" t="n">
@@ -4854,7 +4854,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>inst1800.txt</t>
+          <t>inst1400.txt</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>1800</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="E193" t="n">
@@ -4877,7 +4877,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>inst1800.txt</t>
+          <t>inst1400.txt</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -4887,7 +4887,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>1800</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="E194" t="n">
@@ -4900,7 +4900,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>inst1800.txt</t>
+          <t>inst1400.txt</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -4910,7 +4910,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>1800</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="E195" t="n">
@@ -4923,7 +4923,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>inst1800.txt</t>
+          <t>inst1400.txt</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -4933,7 +4933,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>1800</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="E196" t="n">
@@ -4946,7 +4946,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>inst1800.txt</t>
+          <t>inst1400.txt</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -4956,7 +4956,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>1800</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="E197" t="n">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>inst1800.txt</t>
+          <t>inst1400.txt</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -4979,7 +4979,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>1800</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="E198" t="n">
@@ -4992,7 +4992,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>inst1800.txt</t>
+          <t>inst1400.txt</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -5002,7 +5002,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>1800</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="E199" t="n">
@@ -5015,7 +5015,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>inst1800.txt</t>
+          <t>inst1400.txt</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -5025,7 +5025,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>1800</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="E200" t="n">
@@ -5038,7 +5038,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>inst1800.txt</t>
+          <t>inst1400.txt</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -5048,7 +5048,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>1800</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="E201" t="n">
@@ -5061,17 +5061,17 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>inst3.txt</t>
+          <t>inst6000.txt</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6000</t>
         </is>
       </c>
       <c r="E202" t="n">
@@ -5084,17 +5084,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>inst3.txt</t>
+          <t>inst6000.txt</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6000</t>
         </is>
       </c>
       <c r="E203" t="n">
@@ -5107,17 +5107,17 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>inst3.txt</t>
+          <t>inst6000.txt</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6000</t>
         </is>
       </c>
       <c r="E204" t="n">
@@ -5130,17 +5130,17 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>inst3.txt</t>
+          <t>inst6000.txt</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6000</t>
         </is>
       </c>
       <c r="E205" t="n">
@@ -5153,17 +5153,17 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>inst3.txt</t>
+          <t>inst6000.txt</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6000</t>
         </is>
       </c>
       <c r="E206" t="n">
@@ -5176,17 +5176,17 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>inst3.txt</t>
+          <t>inst6000.txt</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6000</t>
         </is>
       </c>
       <c r="E207" t="n">
@@ -5199,17 +5199,17 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>inst3.txt</t>
+          <t>inst6000.txt</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6000</t>
         </is>
       </c>
       <c r="E208" t="n">
@@ -5222,17 +5222,17 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>inst3.txt</t>
+          <t>inst6000.txt</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6000</t>
         </is>
       </c>
       <c r="E209" t="n">
@@ -5245,17 +5245,17 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>inst3.txt</t>
+          <t>inst6000.txt</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6000</t>
         </is>
       </c>
       <c r="E210" t="n">
@@ -5268,17 +5268,17 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>inst3.txt</t>
+          <t>inst6000.txt</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6000</t>
         </is>
       </c>
       <c r="E211" t="n">
@@ -5291,17 +5291,17 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>inst4.txt</t>
+          <t>inst1200.txt</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1200</t>
         </is>
       </c>
       <c r="E212" t="n">
@@ -5314,17 +5314,17 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>inst4.txt</t>
+          <t>inst1200.txt</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1200</t>
         </is>
       </c>
       <c r="E213" t="n">
@@ -5337,17 +5337,17 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>inst4.txt</t>
+          <t>inst1200.txt</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1200</t>
         </is>
       </c>
       <c r="E214" t="n">
@@ -5360,17 +5360,17 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>inst4.txt</t>
+          <t>inst1200.txt</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1200</t>
         </is>
       </c>
       <c r="E215" t="n">
@@ -5383,17 +5383,17 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>inst4.txt</t>
+          <t>inst1200.txt</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1200</t>
         </is>
       </c>
       <c r="E216" t="n">
@@ -5406,17 +5406,17 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>inst4.txt</t>
+          <t>inst1200.txt</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1200</t>
         </is>
       </c>
       <c r="E217" t="n">
@@ -5429,17 +5429,17 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>inst4.txt</t>
+          <t>inst1200.txt</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1200</t>
         </is>
       </c>
       <c r="E218" t="n">
@@ -5452,17 +5452,17 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>inst4.txt</t>
+          <t>inst1200.txt</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1200</t>
         </is>
       </c>
       <c r="E219" t="n">
@@ -5475,17 +5475,17 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>inst4.txt</t>
+          <t>inst1200.txt</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1200</t>
         </is>
       </c>
       <c r="E220" t="n">
@@ -5498,17 +5498,17 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>inst4.txt</t>
+          <t>inst1200.txt</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1200</t>
         </is>
       </c>
       <c r="E221" t="n">
@@ -5521,17 +5521,17 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>inst5.txt</t>
+          <t>inst4000.txt</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="E222" t="n">
@@ -5544,17 +5544,17 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>inst5.txt</t>
+          <t>inst4000.txt</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="E223" t="n">
@@ -5567,17 +5567,17 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>inst5.txt</t>
+          <t>inst4000.txt</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="E224" t="n">
@@ -5590,17 +5590,17 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>inst5.txt</t>
+          <t>inst4000.txt</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="E225" t="n">
@@ -5613,17 +5613,17 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>inst5.txt</t>
+          <t>inst4000.txt</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="E226" t="n">
@@ -5636,17 +5636,17 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>inst5.txt</t>
+          <t>inst4000.txt</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="E227" t="n">
@@ -5659,17 +5659,17 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>inst5.txt</t>
+          <t>inst4000.txt</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="E228" t="n">
@@ -5682,17 +5682,17 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>inst5.txt</t>
+          <t>inst4000.txt</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="E229" t="n">
@@ -5705,17 +5705,17 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>inst5.txt</t>
+          <t>inst4000.txt</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="E230" t="n">
@@ -5728,17 +5728,17 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>inst5.txt</t>
+          <t>inst4000.txt</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="E231" t="n">
@@ -5751,17 +5751,17 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>inst8.txt</t>
+          <t>inst3400.txt</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3400</t>
         </is>
       </c>
       <c r="E232" t="n">
@@ -5774,17 +5774,17 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>inst8.txt</t>
+          <t>inst3400.txt</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3400</t>
         </is>
       </c>
       <c r="E233" t="n">
@@ -5797,17 +5797,17 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>inst8.txt</t>
+          <t>inst3400.txt</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3400</t>
         </is>
       </c>
       <c r="E234" t="n">
@@ -5820,17 +5820,17 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>inst8.txt</t>
+          <t>inst3400.txt</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3400</t>
         </is>
       </c>
       <c r="E235" t="n">
@@ -5843,17 +5843,17 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>inst8.txt</t>
+          <t>inst3400.txt</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3400</t>
         </is>
       </c>
       <c r="E236" t="n">
@@ -5866,17 +5866,17 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>inst8.txt</t>
+          <t>inst3400.txt</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3400</t>
         </is>
       </c>
       <c r="E237" t="n">
@@ -5889,17 +5889,17 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>inst8.txt</t>
+          <t>inst3400.txt</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3400</t>
         </is>
       </c>
       <c r="E238" t="n">
@@ -5912,17 +5912,17 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>inst8.txt</t>
+          <t>inst3400.txt</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3400</t>
         </is>
       </c>
       <c r="E239" t="n">
@@ -5935,17 +5935,17 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>inst8.txt</t>
+          <t>inst3400.txt</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3400</t>
         </is>
       </c>
       <c r="E240" t="n">
@@ -5958,17 +5958,17 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>inst8.txt</t>
+          <t>inst3400.txt</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3400</t>
         </is>
       </c>
       <c r="E241" t="n">
@@ -5981,17 +5981,17 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>inst7.txt</t>
+          <t>inst3000.txt</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="E242" t="n">
@@ -6004,17 +6004,17 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>inst7.txt</t>
+          <t>inst3000.txt</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="E243" t="n">
@@ -6027,17 +6027,17 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>inst7.txt</t>
+          <t>inst3000.txt</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="E244" t="n">
@@ -6050,17 +6050,17 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>inst7.txt</t>
+          <t>inst3000.txt</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="E245" t="n">
@@ -6073,17 +6073,17 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>inst7.txt</t>
+          <t>inst3000.txt</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="E246" t="n">
@@ -6096,17 +6096,17 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>inst7.txt</t>
+          <t>inst3000.txt</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="E247" t="n">
@@ -6119,17 +6119,17 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>inst7.txt</t>
+          <t>inst3000.txt</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="E248" t="n">
@@ -6142,17 +6142,17 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>inst7.txt</t>
+          <t>inst3000.txt</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="E249" t="n">
@@ -6165,17 +6165,17 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>inst7.txt</t>
+          <t>inst3000.txt</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="E250" t="n">
@@ -6188,17 +6188,17 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>inst7.txt</t>
+          <t>inst3000.txt</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="E251" t="n">
@@ -6211,17 +6211,17 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>inst9.txt</t>
+          <t>inst400.txt</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>400</t>
         </is>
       </c>
       <c r="E252" t="n">
@@ -6234,17 +6234,17 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>inst9.txt</t>
+          <t>inst400.txt</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>400</t>
         </is>
       </c>
       <c r="E253" t="n">
@@ -6257,17 +6257,17 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>inst9.txt</t>
+          <t>inst400.txt</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>400</t>
         </is>
       </c>
       <c r="E254" t="n">
@@ -6280,17 +6280,17 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>inst9.txt</t>
+          <t>inst400.txt</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>400</t>
         </is>
       </c>
       <c r="E255" t="n">
@@ -6303,17 +6303,17 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>inst9.txt</t>
+          <t>inst400.txt</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>400</t>
         </is>
       </c>
       <c r="E256" t="n">
@@ -6326,17 +6326,17 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>inst9.txt</t>
+          <t>inst400.txt</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>400</t>
         </is>
       </c>
       <c r="E257" t="n">
@@ -6349,17 +6349,17 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>inst9.txt</t>
+          <t>inst400.txt</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>400</t>
         </is>
       </c>
       <c r="E258" t="n">
@@ -6372,17 +6372,17 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>inst9.txt</t>
+          <t>inst400.txt</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>400</t>
         </is>
       </c>
       <c r="E259" t="n">
@@ -6395,17 +6395,17 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>inst9.txt</t>
+          <t>inst400.txt</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>MOLS</t>
+          <t>N-Queens</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>400</t>
         </is>
       </c>
       <c r="E260" t="n">
@@ -6418,20 +6418,2320 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
+          <t>inst400.txt</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="E261" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>inst2200.txt</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="E262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>inst2200.txt</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="E263" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>inst2200.txt</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="E264" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>inst2200.txt</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="E265" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>inst2200.txt</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="E266" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>inst2200.txt</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="E267" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>inst2200.txt</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="E268" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>inst2200.txt</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="E269" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>inst2200.txt</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="E270" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>inst2200.txt</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="E271" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>inst1800.txt</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>1800</t>
+        </is>
+      </c>
+      <c r="E272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>inst1800.txt</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>1800</t>
+        </is>
+      </c>
+      <c r="E273" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>inst1800.txt</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>1800</t>
+        </is>
+      </c>
+      <c r="E274" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>inst1800.txt</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>1800</t>
+        </is>
+      </c>
+      <c r="E275" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>inst1800.txt</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>1800</t>
+        </is>
+      </c>
+      <c r="E276" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>inst1800.txt</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>1800</t>
+        </is>
+      </c>
+      <c r="E277" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>inst1800.txt</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>1800</t>
+        </is>
+      </c>
+      <c r="E278" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>inst1800.txt</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>1800</t>
+        </is>
+      </c>
+      <c r="E279" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>inst1800.txt</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>1800</t>
+        </is>
+      </c>
+      <c r="E280" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>inst1800.txt</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>1800</t>
+        </is>
+      </c>
+      <c r="E281" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>inst4200.txt</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>4200</t>
+        </is>
+      </c>
+      <c r="E282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>inst4200.txt</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>4200</t>
+        </is>
+      </c>
+      <c r="E283" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>inst4200.txt</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>4200</t>
+        </is>
+      </c>
+      <c r="E284" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>inst4200.txt</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>4200</t>
+        </is>
+      </c>
+      <c r="E285" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>inst4200.txt</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>4200</t>
+        </is>
+      </c>
+      <c r="E286" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>inst4200.txt</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>4200</t>
+        </is>
+      </c>
+      <c r="E287" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>inst4200.txt</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>4200</t>
+        </is>
+      </c>
+      <c r="E288" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>inst4200.txt</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>4200</t>
+        </is>
+      </c>
+      <c r="E289" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>inst4200.txt</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>4200</t>
+        </is>
+      </c>
+      <c r="E290" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>inst4200.txt</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>4200</t>
+        </is>
+      </c>
+      <c r="E291" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>inst4400.txt</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="E292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>inst4400.txt</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="E293" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>inst4400.txt</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="E294" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>inst4400.txt</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="E295" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>inst4400.txt</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="E296" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>inst4400.txt</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="E297" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>inst4400.txt</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="E298" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>inst4400.txt</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="E299" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>inst4400.txt</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="E300" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>inst4400.txt</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>N-Queens</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="E301" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>inst3.txt</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>inst3.txt</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E303" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>inst3.txt</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E304" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>inst3.txt</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E305" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>inst3.txt</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E306" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>inst3.txt</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E307" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>inst3.txt</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E308" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>inst3.txt</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E309" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>inst3.txt</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E310" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>inst3.txt</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E311" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>inst4.txt</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E312" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>inst4.txt</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E313" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>inst4.txt</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E314" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>inst4.txt</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E315" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>inst4.txt</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E316" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>inst4.txt</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E317" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>inst4.txt</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E318" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>inst4.txt</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E319" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>inst4.txt</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E320" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>inst4.txt</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E321" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>inst5.txt</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>inst5.txt</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E323" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>inst5.txt</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E324" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>inst5.txt</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E325" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>inst5.txt</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E326" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>inst5.txt</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E327" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>inst5.txt</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E328" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>inst5.txt</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E329" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>inst5.txt</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E330" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>inst5.txt</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E331" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>inst8.txt</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E332" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>inst8.txt</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E333" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>inst8.txt</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E334" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>inst8.txt</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E335" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>inst8.txt</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E336" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>inst8.txt</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E337" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>inst8.txt</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E338" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>inst8.txt</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E339" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>inst8.txt</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E340" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>inst8.txt</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E341" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>inst7.txt</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E342" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>inst7.txt</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E343" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>inst7.txt</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E344" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>inst7.txt</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E345" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>inst7.txt</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E346" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>inst7.txt</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E347" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>inst7.txt</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E348" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>inst7.txt</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E349" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>inst7.txt</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E350" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>inst7.txt</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E351" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
           <t>inst9.txt</t>
         </is>
       </c>
-      <c r="C261" t="inlineStr">
+      <c r="C352" t="inlineStr">
         <is>
           <t>MOLS</t>
         </is>
       </c>
-      <c r="D261" t="inlineStr">
+      <c r="D352" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E261" t="n">
+      <c r="E352" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>inst9.txt</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E353" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>inst9.txt</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E354" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>inst9.txt</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E355" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>inst9.txt</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E356" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>inst9.txt</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E357" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>inst9.txt</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E358" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>inst9.txt</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E359" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>inst9.txt</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E360" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>inst9.txt</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>MOLS</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E361" t="n">
         <v>10</v>
       </c>
     </row>
